--- a/data/trans_bre/P2403-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2403-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2403-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2403-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,74%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 1,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,53; 158,77</t>
         </is>
       </c>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,27%</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; -0,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -17,93</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -784,12 +784,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,92%</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,74; -0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 2,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,97; 296,67</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,77%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 0,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,74; -0,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 4,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 284,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,74; -18,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,82; 130,75</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,18%</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,64; -1,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; 0,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 132,36</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,6%</t>
         </is>
       </c>
     </row>
@@ -1047,12 +1047,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,84; 0,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 0,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1062,12 +1062,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,73; 99,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 164,4</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,68%</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; -0,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 0,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,17; -27,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,04; 31,72</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,78%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,49%</t>
         </is>
       </c>
     </row>
@@ -1202,17 +1202,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 0,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; -0,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 0,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -26,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,37; 50,86</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,96%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,58%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,17%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; -0,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; -1,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; -0,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -19,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,23; -52,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,34; -7,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2403-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2403-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,22 +647,22 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-5,49; -0,01</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 1,17</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,91; 1,17</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 33,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-60,38%</t>
+          <t>-57,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -0,79</t>
+          <t>-5,82; 0,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,74; -18,56</t>
+          <t>-87,14; 15,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
